--- a/app/Data/Hot Drinks.xlsx
+++ b/app/Data/Hot Drinks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Lino\Platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Lino\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E12F15-F478-4A36-9EAD-8774BA0F95DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B976C5-064E-477D-96BB-393FE662B47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{17965FF2-BBB3-46AF-8EA6-97340CBE5AB4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="131">
   <si>
     <t xml:space="preserve">SKU NUMBER </t>
   </si>
@@ -74,9 +74,6 @@
     <t xml:space="preserve">TEA </t>
   </si>
   <si>
-    <t>COFFEE</t>
-  </si>
-  <si>
     <t xml:space="preserve">HOT CHOCOLATE </t>
   </si>
   <si>
@@ -234,6 +231,204 @@
   </si>
   <si>
     <t>200g</t>
+  </si>
+  <si>
+    <t>CAPPUCCINOS &amp; LATTES</t>
+  </si>
+  <si>
+    <t>AERO INSTANT CHOCOLATE SACHETS 1CUP</t>
+  </si>
+  <si>
+    <t>AERO</t>
+  </si>
+  <si>
+    <t>40x24g</t>
+  </si>
+  <si>
+    <t>24g per sachet</t>
+  </si>
+  <si>
+    <t>CAPPUCCINO GOLD SACHETS NESCAFE</t>
+  </si>
+  <si>
+    <t>50x one</t>
+  </si>
+  <si>
+    <t>individual sachets</t>
+  </si>
+  <si>
+    <t>LATTE NESCAFE 1CUP SACHETS GOLD</t>
+  </si>
+  <si>
+    <t>40x19.5g</t>
+  </si>
+  <si>
+    <t>19.5g per sachet</t>
+  </si>
+  <si>
+    <t>LATTE NESCAFE GOLD CATERING 1KG</t>
+  </si>
+  <si>
+    <t>1kg</t>
+  </si>
+  <si>
+    <t>INSTANT COFFEE</t>
+  </si>
+  <si>
+    <t>COFFEE BEANS, GROUND &amp; FILTER</t>
+  </si>
+  <si>
+    <t>COFFEE BEANS SLUMBERJACK</t>
+  </si>
+  <si>
+    <t>SLUMBERJACK</t>
+  </si>
+  <si>
+    <t>1x500g</t>
+  </si>
+  <si>
+    <t>COFFEE BEANS CAFÉ BRAZIL</t>
+  </si>
+  <si>
+    <t>6x1kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in the attached file </t>
+  </si>
+  <si>
+    <t>COFFEE BEANS ESPRESSO DARK DOUWE EG</t>
+  </si>
+  <si>
+    <t>DOUWE EGBERTS</t>
+  </si>
+  <si>
+    <t>COFFEE BEANS ESPRESSO EXTRA DARK</t>
+  </si>
+  <si>
+    <t>COFFEE BEANS ITALIAN ESPRESSO</t>
+  </si>
+  <si>
+    <t>COFFEE DECAFFEINATED BEANS TAYLORS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAYLORS </t>
+  </si>
+  <si>
+    <t>2x1kg</t>
+  </si>
+  <si>
+    <t>COFFEE ESPRESSO BEANS ARABICA TAYLO</t>
+  </si>
+  <si>
+    <t>COFFEE ESPRESSO BEANS TAYLORS</t>
+  </si>
+  <si>
+    <t>6x227g</t>
+  </si>
+  <si>
+    <t>227g</t>
+  </si>
+  <si>
+    <t>COFFEE FILTER BLEND DOUWE EGBERTS</t>
+  </si>
+  <si>
+    <t>COFFEE GROUND DECAFFENATED TAYLORS</t>
+  </si>
+  <si>
+    <t>COFFEE RICH ITALIAN BEANS TAYLORS</t>
+  </si>
+  <si>
+    <t>COFFEE VENDING CAFE NUEVA FORZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAFÉ NUEVA </t>
+  </si>
+  <si>
+    <t>10x300g</t>
+  </si>
+  <si>
+    <t>300g</t>
+  </si>
+  <si>
+    <t>DOUWE EGBERTS RICH ROAST INSTANT CO</t>
+  </si>
+  <si>
+    <t>6x750g</t>
+  </si>
+  <si>
+    <t>750g</t>
+  </si>
+  <si>
+    <t>KENCO DECAF 1cup COFFEE STICKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KENCO </t>
+  </si>
+  <si>
+    <t>4x200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 1cup sticks </t>
+  </si>
+  <si>
+    <t>KENCO SMOOTH 1cup COFFEE STICKS</t>
+  </si>
+  <si>
+    <t>NESCAFE DECAFFEINATED 1cup STICK SA</t>
+  </si>
+  <si>
+    <t>1x200</t>
+  </si>
+  <si>
+    <t>6x500g</t>
+  </si>
+  <si>
+    <t>NESCAFE GOLD BLEND VENDING COFFEE P</t>
+  </si>
+  <si>
+    <t>NESCAFE GOLD BLEND1cup STICK SACHET</t>
+  </si>
+  <si>
+    <t>NESCAFE ORIGINAL INSTANT COFFEE 83m</t>
+  </si>
+  <si>
+    <t>6x150g</t>
+  </si>
+  <si>
+    <t>150g</t>
+  </si>
+  <si>
+    <t>NESCAFE CLASSIC ORIGINAL 360G</t>
+  </si>
+  <si>
+    <t>CHOCOLATE HOT INSTANT TIN CADBURY'S</t>
+  </si>
+  <si>
+    <t>CHOCOLATE HOT NESTLE INSTANT VENDNG</t>
+  </si>
+  <si>
+    <t>NESTLE</t>
+  </si>
+  <si>
+    <t>CHOCOLATE INSTANT STICK CADBURY</t>
+  </si>
+  <si>
+    <t>50x28g</t>
+  </si>
+  <si>
+    <t>28g</t>
+  </si>
+  <si>
+    <t>GALAXY INSTANT STICK CHOCOLATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALAXY </t>
+  </si>
+  <si>
+    <t>50x25g</t>
+  </si>
+  <si>
+    <t>25g</t>
   </si>
 </sst>
 </file>
@@ -267,15 +462,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -283,11 +490,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -301,6 +523,16 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,21 +847,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7272DDF-F555-4A97-92B7-664DF88DEF5B}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
     <col min="3" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
     <col min="10" max="10" width="18.42578125" customWidth="1"/>
     <col min="11" max="11" width="27.85546875" customWidth="1"/>
   </cols>
@@ -679,7 +911,7 @@
         <v>5010357553499</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -691,16 +923,16 @@
         <v>22.99</v>
       </c>
       <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
         <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -708,7 +940,7 @@
         <v>5000208110186</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -720,16 +952,16 @@
         <v>25.89</v>
       </c>
       <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
         <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -737,7 +969,7 @@
         <v>70177832001</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -749,16 +981,16 @@
         <v>3.09</v>
       </c>
       <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
         <v>28</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
         <v>29</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -766,7 +998,7 @@
         <v>8712423020290</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -778,350 +1010,1268 @@
         <v>3.79</v>
       </c>
       <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
         <v>32</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
         <v>33</v>
       </c>
-      <c r="I6" t="s">
+    </row>
+    <row r="7" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="D7" s="16"/>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="D8" s="16"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="D9" s="16"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="D10" s="16"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="D11" s="16"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>5034660514411</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>85.69</v>
+      </c>
+      <c r="F14" s="7">
+        <v>14.29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>5034660022275</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <v>22.99</v>
+      </c>
+      <c r="F15" s="7">
+        <v>22.99</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>7622210186423</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>68.989999999999995</v>
+      </c>
+      <c r="F16" s="7">
+        <v>6.89</v>
+      </c>
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>5034660514466</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
+      <c r="D17" s="12">
+        <v>51.79</v>
+      </c>
+      <c r="F17" s="12">
+        <v>8.69</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>7613032513184</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="11">
+        <v>1</v>
+      </c>
+      <c r="D18" s="12">
+        <v>63.29</v>
+      </c>
+      <c r="F18" s="12">
+        <v>6.39</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>7622210137180</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1</v>
+      </c>
+      <c r="D19" s="12">
+        <v>12.99</v>
+      </c>
+      <c r="F19" s="12">
+        <v>12.99</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>5060113912732</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="11">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12">
+        <v>13.19</v>
+      </c>
+      <c r="F20" s="12">
+        <v>13.19</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="D21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>5060190225718</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="11">
+        <v>1</v>
+      </c>
+      <c r="D23" s="12">
+        <v>4.59</v>
+      </c>
+      <c r="F23" s="12">
+        <v>4.59</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>5033060000395</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="11">
+        <v>1</v>
+      </c>
+      <c r="D24" s="12">
+        <v>52.39</v>
+      </c>
+      <c r="F24" s="12">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>8711000277423</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="11">
+        <v>1</v>
+      </c>
+      <c r="D25" s="12">
+        <v>59.79</v>
+      </c>
+      <c r="F25" s="12">
+        <v>9.99</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>8711000043301</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="11">
+        <v>1</v>
+      </c>
+      <c r="D26" s="12">
+        <v>99.49</v>
+      </c>
+      <c r="F26" s="12">
+        <v>16.59</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>5060190226883</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1</v>
+      </c>
+      <c r="D27" s="12">
+        <v>52.39</v>
+      </c>
+      <c r="F27" s="12">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>5010357554786</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="11">
+        <v>1</v>
+      </c>
+      <c r="D28" s="12">
+        <v>32.19</v>
+      </c>
+      <c r="F28" s="12">
+        <v>16.09</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>5010357555400</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="11">
+        <v>1</v>
+      </c>
+      <c r="D29" s="12">
+        <v>39.99</v>
+      </c>
+      <c r="F29" s="12">
+        <v>13.39</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>5010357551020</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="11">
+        <v>1</v>
+      </c>
+      <c r="D30" s="12">
+        <v>19.59</v>
+      </c>
+      <c r="F30" s="12">
+        <v>3.29</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>8711000953662</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="11">
+        <v>1</v>
+      </c>
+      <c r="D31" s="12">
+        <v>91.99</v>
+      </c>
+      <c r="F31" s="12">
+        <v>15.39</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>5010357551099</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="11">
+        <v>1</v>
+      </c>
+      <c r="D32" s="12">
+        <v>21.89</v>
+      </c>
+      <c r="F32" s="12">
+        <v>3.69</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>615357123625</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="11">
+        <v>1</v>
+      </c>
+      <c r="D33" s="12">
+        <v>29.89</v>
+      </c>
+      <c r="F33" s="12">
+        <v>14.99</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>5060113913104</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="11">
+        <v>1</v>
+      </c>
+      <c r="D34" s="12">
+        <v>60.99</v>
+      </c>
+      <c r="F34" s="12">
+        <v>6.09</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>8711000351673</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="11">
+        <v>1</v>
+      </c>
+      <c r="D35" s="12">
+        <v>91.99</v>
+      </c>
+      <c r="F35" s="12">
+        <v>15.39</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="D36" s="7"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>7613035301412</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="7">
+        <v>92.59</v>
+      </c>
+      <c r="F38" s="7">
+        <v>30.89</v>
+      </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
         <v>17</v>
       </c>
-      <c r="J6" t="s">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>7613036077521</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="7">
+        <v>40.29</v>
+      </c>
+      <c r="F39" s="7">
+        <v>6.79</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" t="s">
+        <v>63</v>
+      </c>
+      <c r="I39" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>7622200656899</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="11">
+        <v>1</v>
+      </c>
+      <c r="D40" s="12">
+        <v>67.89</v>
+      </c>
+      <c r="F40" s="12">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>7622200656875</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="11">
+        <v>1</v>
+      </c>
+      <c r="D41" s="12">
+        <v>61.99</v>
+      </c>
+      <c r="F41" s="12">
+        <v>15.59</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
+        <v>5000243727585</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="11">
+        <v>1</v>
+      </c>
+      <c r="D42" s="12">
+        <v>20.69</v>
+      </c>
+      <c r="F42" s="12">
+        <v>20.69</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>7613035301658</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="11">
+        <v>1</v>
+      </c>
+      <c r="D43" s="12">
+        <v>145.59</v>
+      </c>
+      <c r="F43" s="12">
+        <v>24.29</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <v>5000243000350</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="11">
+        <v>1</v>
+      </c>
+      <c r="D44" s="12">
+        <v>177.69</v>
+      </c>
+      <c r="F44" s="12">
+        <v>29.69</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <v>5000243001135</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="11">
+        <v>1</v>
+      </c>
+      <c r="D45" s="12">
+        <v>133.38999999999999</v>
+      </c>
+      <c r="F45" s="12">
+        <v>13.39</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <v>7613033694165</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="11">
+        <v>1</v>
+      </c>
+      <c r="D46" s="12">
+        <v>22.99</v>
+      </c>
+      <c r="F46" s="12">
+        <v>22.99</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
+        <v>7613033444807</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="11">
+        <v>1</v>
+      </c>
+      <c r="D47" s="12">
+        <v>14.99</v>
+      </c>
+      <c r="F47" s="12">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
+        <v>5000243727561</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="11">
+        <v>1</v>
+      </c>
+      <c r="D48" s="12">
+        <v>18.39</v>
+      </c>
+      <c r="F48" s="12">
+        <v>18.39</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="D49" s="7"/>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
+        <v>5011546464244</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="11">
+        <v>1</v>
+      </c>
+      <c r="D51" s="12">
+        <v>11.49</v>
+      </c>
+      <c r="F51" s="12">
+        <v>11.49</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <v>7613033121975</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="11">
+        <v>1</v>
+      </c>
+      <c r="D52" s="12">
+        <v>15.29</v>
+      </c>
+      <c r="F52" s="12">
+        <v>15.29</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <v>7613034651587</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="11">
+        <v>1</v>
+      </c>
+      <c r="D53" s="12">
+        <v>12.69</v>
+      </c>
+      <c r="F53" s="12">
+        <v>12.69</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
+        <v>7613031329397</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="11">
+        <v>1</v>
+      </c>
+      <c r="D54" s="12">
+        <v>64.39</v>
+      </c>
+      <c r="F54" s="12">
+        <v>21.49</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>3052910052782</v>
+      </c>
+      <c r="B57" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>7613035301412</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7">
-        <v>92.59</v>
-      </c>
-      <c r="F9" s="7">
-        <v>30.89</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>7613036077521</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>40.29</v>
-      </c>
-      <c r="F10" s="7">
-        <v>6.79</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>5034660514411</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
-        <v>85.69</v>
-      </c>
-      <c r="F13" s="7">
-        <v>14.29</v>
-      </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>5034660022275</v>
-      </c>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7">
-        <v>22.99</v>
-      </c>
-      <c r="F14" s="7">
-        <v>22.99</v>
-      </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>7622210186423</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7">
-        <v>68.989999999999995</v>
-      </c>
-      <c r="F15" s="7">
-        <v>6.89</v>
-      </c>
-      <c r="G15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" s="7">
+        <v>31.09</v>
+      </c>
+      <c r="F57" s="7">
+        <v>7.79</v>
+      </c>
+      <c r="G57" t="s">
+        <v>35</v>
+      </c>
+      <c r="H57" t="s">
+        <v>36</v>
+      </c>
+      <c r="I57" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>5018010401743</v>
+      </c>
+      <c r="B58" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" s="7">
+        <v>48.99</v>
+      </c>
+      <c r="F58" s="7">
+        <v>8.19</v>
+      </c>
+      <c r="G58" t="s">
+        <v>40</v>
+      </c>
+      <c r="H58" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>5018010421376</v>
+      </c>
+      <c r="B59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" s="7">
+        <v>34.49</v>
+      </c>
+      <c r="F59" s="7">
+        <v>5.79</v>
+      </c>
+      <c r="G59" t="s">
+        <v>40</v>
+      </c>
+      <c r="H59" t="s">
+        <v>41</v>
+      </c>
+      <c r="I59" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>5018010401781</v>
+      </c>
+      <c r="B60" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" s="7">
+        <v>34.49</v>
+      </c>
+      <c r="F60" s="7">
+        <v>5.79</v>
+      </c>
+      <c r="G60" t="s">
+        <v>40</v>
+      </c>
+      <c r="H60" t="s">
+        <v>41</v>
+      </c>
+      <c r="I60" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>5146252010208</v>
+      </c>
+      <c r="B61" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>3052910052782</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7">
-        <v>31.09</v>
-      </c>
-      <c r="F18" s="7">
-        <v>7.79</v>
-      </c>
-      <c r="G18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>5018010401743</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" s="7">
+        <v>35.19</v>
+      </c>
+      <c r="F61" s="7">
+        <v>2.99</v>
+      </c>
+      <c r="G61" t="s">
+        <v>56</v>
+      </c>
+      <c r="H61" t="s">
+        <v>57</v>
+      </c>
+      <c r="I61" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>5018010197684</v>
+      </c>
+      <c r="B62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="5">
+        <v>1</v>
+      </c>
+      <c r="D62" s="7">
+        <v>28.79</v>
+      </c>
+      <c r="F62" s="7">
+        <v>2.39</v>
+      </c>
+      <c r="G62" t="s">
         <v>40</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7">
-        <v>48.99</v>
-      </c>
-      <c r="F19" s="7">
-        <v>8.19</v>
-      </c>
-      <c r="G19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>5018010421376</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7">
-        <v>34.49</v>
-      </c>
-      <c r="F20" s="7">
-        <v>5.79</v>
-      </c>
-      <c r="G20" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>5018010401781</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7">
-        <v>34.49</v>
-      </c>
-      <c r="F21" s="7">
-        <v>5.79</v>
-      </c>
-      <c r="G21" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>5146252010208</v>
-      </c>
-      <c r="B22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" s="7">
-        <v>35.19</v>
-      </c>
-      <c r="F22" s="7">
-        <v>2.99</v>
-      </c>
-      <c r="G22" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" t="s">
-        <v>58</v>
-      </c>
-      <c r="I22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>5018010197684</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="H62" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="5">
-        <v>1</v>
-      </c>
-      <c r="D23" s="7">
-        <v>28.79</v>
-      </c>
-      <c r="F23" s="7">
-        <v>2.39</v>
-      </c>
-      <c r="G23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="I62" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" t="s">
         <v>61</v>
-      </c>
-      <c r="I23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
